--- a/server_pack/extracted_data.xlsx
+++ b/server_pack/extracted_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,167 +424,27 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>chand 12.pdf</v>
+        <v>bhav 12.pdf</v>
       </c>
       <c r="B2" t="str">
-        <v>DANTHULURI CHANDRA LEKHA Father</v>
+        <v>GUDALA BHAVANA A</v>
       </c>
       <c r="C2" t="str">
-        <v>DOSVKRAJU</v>
+        <v>GUDALA PENTADRI RAO</v>
       </c>
       <c r="D2" t="str">
-        <v>NA</v>
+        <v>MORAMPUDI B S LAKSHMI</v>
       </c>
       <c r="E2" t="str">
-        <v>363207683089</v>
+        <v>679308736825</v>
       </c>
       <c r="F2" t="str">
-        <v>2002251322</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>shahin_12.pdf</v>
-      </c>
-      <c r="B3" t="str">
-        <v>SHAIK SHAHINA</v>
-      </c>
-      <c r="C3" t="str">
-        <v>SHAIK ABDUL JABBAR</v>
-      </c>
-      <c r="D3" t="str">
-        <v>SHAIK SHAHEDA</v>
-      </c>
-      <c r="E3" t="str">
-        <v>222880026840</v>
-      </c>
-      <c r="F3" t="str">
-        <v>2107230504</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>divya_12.pdf</v>
-      </c>
-      <c r="B4" t="str">
-        <v>VAMARAJU SHREE DIVYA</v>
-      </c>
-      <c r="C4" t="str">
-        <v>VAMARAJU CHANDRA SEKHAR</v>
-      </c>
-      <c r="D4" t="str">
-        <v>MANTHINA MANI MADHURI</v>
-      </c>
-      <c r="E4" t="str">
-        <v>272331002225</v>
-      </c>
-      <c r="F4" t="str">
-        <v>2103223053</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>gayatri_12.pdf</v>
-      </c>
-      <c r="B5" t="str">
-        <v>BADRI GAYATHRI</v>
-      </c>
-      <c r="C5" t="str">
-        <v>NA</v>
-      </c>
-      <c r="D5" t="str">
-        <v>NA</v>
-      </c>
-      <c r="E5" t="str">
-        <v>478232065697</v>
-      </c>
-      <c r="F5" t="str">
-        <v>2102213182</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>uma_12.pdf</v>
-      </c>
-      <c r="B6" t="str">
-        <v>TADI UMA VYSHNAVI Father</v>
-      </c>
-      <c r="C6" t="str">
-        <v>NA</v>
-      </c>
-      <c r="D6" t="str">
-        <v>TADI SRI VENKATA NAGA TRIVENI</v>
-      </c>
-      <c r="E6" t="str">
-        <v>556620401435</v>
-      </c>
-      <c r="F6" t="str">
-        <v>2003232067</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SANKARA ABHIRAM-12.pdf</v>
-      </c>
-      <c r="B7" t="str">
-        <v>MADDULA VENKATA SAI SANKARA ABHIRAM i</v>
-      </c>
-      <c r="C7" t="str">
-        <v>NA</v>
-      </c>
-      <c r="D7" t="str">
-        <v>NA</v>
-      </c>
-      <c r="E7" t="str">
-        <v>681951197315</v>
-      </c>
-      <c r="F7" t="str">
-        <v>2104236448</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>vamsi_12.pdf</v>
-      </c>
-      <c r="B8" t="str">
-        <v>VALLEPU SRI KRISHNA VAMSI</v>
-      </c>
-      <c r="C8" t="str">
-        <v>VALLEPU ANKAMMARAO</v>
-      </c>
-      <c r="D8" t="str">
-        <v>VALLEPU SAROJINI</v>
-      </c>
-      <c r="E8" t="str">
-        <v>NA</v>
-      </c>
-      <c r="F8" t="str">
-        <v>24107224265</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>vandana_12th.pdf</v>
-      </c>
-      <c r="B9" t="str">
-        <v>GOLAGANA VANDANA i</v>
-      </c>
-      <c r="C9" t="str">
-        <v>GOLAGANA GOVINDA RAO</v>
-      </c>
-      <c r="D9" t="str">
-        <v>NA</v>
-      </c>
-      <c r="E9" t="str">
-        <v>874319581097</v>
-      </c>
-      <c r="F9" t="str">
-        <v>2102221071</v>
+        <v>2102220995</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>